--- a/Contract Fire/30190/res.xlsx
+++ b/Contract Fire/30190/res.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Contract Fire\30190\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DCD192C5-B43A-4A0F-89AD-899524A9D62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F7B7B8-3BE1-452C-8F02-9A97AA465D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="1035" windowWidth="29265" windowHeight="19695"/>
+    <workbookView xWindow="5235" yWindow="1080" windowWidth="29265" windowHeight="19695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$H$291</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="160">
   <si>
     <t>type</t>
   </si>
@@ -44,12 +60,468 @@
   </si>
   <si>
     <t>template name</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>Drawing No.</t>
+  </si>
+  <si>
+    <t>Revision No.</t>
+  </si>
+  <si>
+    <t>Contractfire Sign Off</t>
+  </si>
+  <si>
+    <t>Checked By:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>ITC 301 - Sprinkler Installation - Rough In High Level</t>
+  </si>
+  <si>
+    <t>1. Drg No / Revision</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Supports spacing &amp; fixing as per code </t>
+  </si>
+  <si>
+    <t>3. Pipework installed as per drg</t>
+  </si>
+  <si>
+    <t>4. Concealed space sprinklers installed</t>
+  </si>
+  <si>
+    <t>5. All ends blanked off/plugged for testing</t>
+  </si>
+  <si>
+    <t>6. Pipes left out as noted below</t>
+  </si>
+  <si>
+    <t>7. Flexibles installed</t>
+  </si>
+  <si>
+    <t>8. Seismic Bracing Installed if required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Charge hand Inspection </t>
+  </si>
+  <si>
+    <t>Lend Lease Sign Off</t>
+  </si>
+  <si>
+    <t>ITC 302 - Sprinkler Installation - Below Ceiling Fit-off</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>2. Ceiling grid levelled</t>
+  </si>
+  <si>
+    <t>3. Sprinklers installed as per drg</t>
+  </si>
+  <si>
+    <t>4. All escutcheon plates installed</t>
+  </si>
+  <si>
+    <t>5. Areas not fitted-off as noted below</t>
+  </si>
+  <si>
+    <t>6. Pressure Tested (refer I&amp;TR 401)</t>
+  </si>
+  <si>
+    <t>7. Charge hand inspection</t>
+  </si>
+  <si>
+    <t>2. Supports spacing &amp; fixing as per code</t>
+  </si>
+  <si>
+    <t>4. Seismic Bracing Installed if required.</t>
+  </si>
+  <si>
+    <t>5. Pipes left out as notes &amp; reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Hyd valve installed at correct height </t>
+  </si>
+  <si>
+    <t>7. Hosereel installed at correct height</t>
+  </si>
+  <si>
+    <t>8. Signage &amp; labelling installed</t>
+  </si>
+  <si>
+    <t>9. Hydrant valves locked open</t>
+  </si>
+  <si>
+    <t>ITC 303 - Hydrant Installation - Hydrant / Hose Reel Install &amp; Fit Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprinkler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprinkler Rough In </t>
+  </si>
+  <si>
+    <t>ITC 304 - Sprinkler Control Valve Installation</t>
+  </si>
+  <si>
+    <t>Sprinkler Rough-In completed</t>
+  </si>
+  <si>
+    <t>1. Monitored Alarm Valve Operated</t>
+  </si>
+  <si>
+    <t>2. Solenoid Valve Operated</t>
+  </si>
+  <si>
+    <t>3. Flow Switch Operated</t>
+  </si>
+  <si>
+    <t>4. Run Remote Test Drain</t>
+  </si>
+  <si>
+    <t>5. Installation Pressure Switch Operated</t>
+  </si>
+  <si>
+    <t>Smoke Signals Sign Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCV </t>
+  </si>
+  <si>
+    <t>Guidelines</t>
+  </si>
+  <si>
+    <t>Guidelines acknowledged</t>
+  </si>
+  <si>
+    <t>Air - 50Kpa for 30mins.</t>
+  </si>
+  <si>
+    <t>Water - “1400 kPa for 2 hours” with no pressure loss.</t>
+  </si>
+  <si>
+    <t>Note - 1400 kPa will be the maximum tested pressure</t>
+  </si>
+  <si>
+    <t>Air Test</t>
+  </si>
+  <si>
+    <t>First Sighting</t>
+  </si>
+  <si>
+    <t>Time:</t>
+  </si>
+  <si>
+    <t>Pressure:</t>
+  </si>
+  <si>
+    <t>Second Sighting</t>
+  </si>
+  <si>
+    <t>AIR - 50Kpa for 30mins</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>ITC 401 - Sprinkler Hydrostatic Pressure Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>Rough In</t>
+  </si>
+  <si>
+    <t>Fit Off</t>
+  </si>
+  <si>
+    <t>Witness (Contractfire):</t>
+  </si>
+  <si>
+    <t>Witness (Lend Lease):</t>
+  </si>
+  <si>
+    <t>ITC 402 - Hydrant Hydrostatic Pressure Test</t>
+  </si>
+  <si>
+    <t>Water Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 1700 kPa will be the maximum tested pressure or </t>
+  </si>
+  <si>
+    <t>1.5 TIMES THE HIGHEST HYDRANT IF GREATER – i.e 700Kpa + 350Kpa = 1050Kpa + RL DIFFERENCE GREATER THAN 65m (650Kpa) = &lt;1700kPA</t>
+  </si>
+  <si>
+    <t>WATER - “1700 kPa for 2 hours” with no pressure loss.</t>
+  </si>
+  <si>
+    <t>Water Test if Required</t>
+  </si>
+  <si>
+    <t>First Sighting if Required</t>
+  </si>
+  <si>
+    <t>Second Sighting if Required</t>
+  </si>
+  <si>
+    <t>ITC 501 - Fire Extinguisher Installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extinguisher </t>
+  </si>
+  <si>
+    <t>7. Location signage installed to AS.2444</t>
+  </si>
+  <si>
+    <t>6. Extinguisher description type signage installed to AS.2444</t>
+  </si>
+  <si>
+    <t>5. Extinguisher tagged</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>4. Correct unit height &amp; clearances</t>
+  </si>
+  <si>
+    <t>3. Correct unit type</t>
+  </si>
+  <si>
+    <t>2. Installation locations as per drawing.</t>
+  </si>
+  <si>
+    <t>1. Drawing revision correct</t>
+  </si>
+  <si>
+    <t>2. Piping as per installation</t>
+  </si>
+  <si>
+    <t>6. Pump performance site test results Diesel S1</t>
+  </si>
+  <si>
+    <t>7. Pump performance site test results Diesel S2</t>
+  </si>
+  <si>
+    <t>ITC 601 - Diesel Pump Installation / Commissioning</t>
+  </si>
+  <si>
+    <t>Electric Pump Installation / Commissioning</t>
+  </si>
+  <si>
+    <t>1. Pump room drawing revision correct</t>
+  </si>
+  <si>
+    <t>3. All Drains connected.</t>
+  </si>
+  <si>
+    <t>4. Diesel fuel tank filled.</t>
+  </si>
+  <si>
+    <t>5. Power available from electrical contractor &amp; approved for use.</t>
+  </si>
+  <si>
+    <t>8. Manufacturers site commissioning results attached as an appendix.</t>
+  </si>
+  <si>
+    <t>* Flow Test &amp; Commissioning results attached as an appendix.</t>
+  </si>
+  <si>
+    <t>ITC 601 - Electric Pump Installation / Commissioning</t>
+  </si>
+  <si>
+    <t>Diesel Pump Installation / Commissioning</t>
+  </si>
+  <si>
+    <t>1. Pump room drawing revision correct.</t>
+  </si>
+  <si>
+    <t>2. Piping as per installation.</t>
+  </si>
+  <si>
+    <t>3. All drains connected.</t>
+  </si>
+  <si>
+    <t>4. Power available from electrical contractor &amp; approved for use.</t>
+  </si>
+  <si>
+    <t>5. Pump performance site test results Elec S1</t>
+  </si>
+  <si>
+    <t>6. Pump performance site test results Elec S2</t>
+  </si>
+  <si>
+    <t>7. Manufacturers site commissioning results attached as an appendix.</t>
+  </si>
+  <si>
+    <t>10. Tank Infill installed in correct location and is sized correctly.</t>
+  </si>
+  <si>
+    <t>9. Tank Suction installed in correct location and is sized correctly.</t>
+  </si>
+  <si>
+    <t>8. Tank Overflow installed in correct location and is sized correctly.</t>
+  </si>
+  <si>
+    <t>5. Tank Drain installed in correct location and is sized correctly.</t>
+  </si>
+  <si>
+    <t>4. Level Indicators Installed.</t>
+  </si>
+  <si>
+    <t>3. Access ladder and Hatch Installed and accessible.</t>
+  </si>
+  <si>
+    <t>2. Visual Inspection of installation confirming correct location.</t>
+  </si>
+  <si>
+    <t>11. Tank Top up installed in correct location and is sized correctly.</t>
+  </si>
+  <si>
+    <t>12. Tank Man Hole installed in correct location and is sized correctly.</t>
+  </si>
+  <si>
+    <t>13. All relevant pipework has been connected to the tank.</t>
+  </si>
+  <si>
+    <t>14. Tank Number and Capacity labeling installed.</t>
+  </si>
+  <si>
+    <t>15. Ensure Drains have been connected by Hydraulics contractor and capable of taking the volume of water if tank needs to be drained.</t>
+  </si>
+  <si>
+    <t>16. Fill Tank to a level just above the tank drain and wait 2hrs before continuing if no leaks.</t>
+  </si>
+  <si>
+    <t>17. Fill Tank to a level just above the Suction line and wait 2hrs before continuing if no leaks.</t>
+  </si>
+  <si>
+    <t>18. Visual Inspection of installation confirming no leaks, movement or distortion before next filling.</t>
+  </si>
+  <si>
+    <t>1. Approved shop drawing revision.</t>
+  </si>
+  <si>
+    <t>19. Fill Tank to a level just above the top of the first panel and wait 2hrs before continuing if no leaks.</t>
+  </si>
+  <si>
+    <t>20. Fill Tank to a level just above the top of the second panel and wait 2hrs before continuing if no leaks.</t>
+  </si>
+  <si>
+    <t>21. Visual Inspection of installation confirming no leaks, movement or distortion before next filling.</t>
+  </si>
+  <si>
+    <t>22. Fill Tank to the capacity level.</t>
+  </si>
+  <si>
+    <t>23. Ensure Infill line ball float valve is adjusted correctly.</t>
+  </si>
+  <si>
+    <t>24. Ensure Top up line ball float valve is adjusted correctly.</t>
+  </si>
+  <si>
+    <t>25. Visual Inspection of installation confirming no leaks, movement or distortion.</t>
+  </si>
+  <si>
+    <t>26. Inspect tank for each day for the next 2 days concurrently to ensure that there is no leaks, movement or distortion.</t>
+  </si>
+  <si>
+    <t>ITC 602 - Tank Installation / Commissioning</t>
+  </si>
+  <si>
+    <t>Tank Installation / Commissioning</t>
+  </si>
+  <si>
+    <t>1. Installed as per drawing</t>
+  </si>
+  <si>
+    <t>2. Drawing revision</t>
+  </si>
+  <si>
+    <t>3. MFB required clearance confirmed</t>
+  </si>
+  <si>
+    <t>4. Labelling per stage &amp; level provided</t>
+  </si>
+  <si>
+    <t>5. Isolations valves closed &amp; locked</t>
+  </si>
+  <si>
+    <t>6. Pressure gauges at T.M pressure</t>
+  </si>
+  <si>
+    <t>7. Storz couplings installed to suction points</t>
+  </si>
+  <si>
+    <t>8. Hydrostatic Test Completed (1700 kpa)</t>
+  </si>
+  <si>
+    <t>9. Independent Certification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booster Installation </t>
+  </si>
+  <si>
+    <t>ITC 701 - Booster Installation</t>
+  </si>
+  <si>
+    <t>3. Contractfire Completion Statement</t>
+  </si>
+  <si>
+    <t>4. Contractfire Warranty Statement</t>
+  </si>
+  <si>
+    <t>5. Operation &amp; Maintenance Manuals</t>
+  </si>
+  <si>
+    <t>6. Quality Assurance Documentation</t>
+  </si>
+  <si>
+    <t>7. As Installed Documentation</t>
+  </si>
+  <si>
+    <t>8. Testing &amp; Maintenance Commences</t>
+  </si>
+  <si>
+    <t>1. Hydrant Independent Certification</t>
+  </si>
+  <si>
+    <t>2. Sprinkler Independent Certification</t>
+  </si>
+  <si>
+    <t>Project Completion/Certification</t>
+  </si>
+  <si>
+    <t>ITC 801 - Project Completion/Certification Checklist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,7 +658,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +838,24 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -527,8 +1017,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -903,17 +1396,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="120.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="126" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="60.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -943,7 +1437,2881 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+      <c r="H59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="H74" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" t="s">
+        <v>60</v>
+      </c>
+      <c r="H79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>64</v>
+      </c>
+      <c r="H84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>64</v>
+      </c>
+      <c r="H89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>65</v>
+      </c>
+      <c r="H90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
+        <v>73</v>
+      </c>
+      <c r="H91" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H92" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H93" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" t="s">
+        <v>64</v>
+      </c>
+      <c r="H95" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
+        <v>65</v>
+      </c>
+      <c r="H96" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H97" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H98" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>64</v>
+      </c>
+      <c r="H100" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>65</v>
+      </c>
+      <c r="H101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>73</v>
+      </c>
+      <c r="H102" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H103" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H104" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>64</v>
+      </c>
+      <c r="H106" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
+        <v>65</v>
+      </c>
+      <c r="H107" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>73</v>
+      </c>
+      <c r="H108" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H109" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H110" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>64</v>
+      </c>
+      <c r="H112" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" t="s">
+        <v>65</v>
+      </c>
+      <c r="H113" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>73</v>
+      </c>
+      <c r="H114" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>74</v>
+      </c>
+      <c r="H115" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>88</v>
+      </c>
+      <c r="B116" t="s">
+        <v>88</v>
+      </c>
+      <c r="H116" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H118" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H119" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>68</v>
+      </c>
+      <c r="B120" t="s">
+        <v>67</v>
+      </c>
+      <c r="H120" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>68</v>
+      </c>
+      <c r="B121" t="s">
+        <v>79</v>
+      </c>
+      <c r="H121" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>68</v>
+      </c>
+      <c r="B122" t="s">
+        <v>77</v>
+      </c>
+      <c r="H122" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>68</v>
+      </c>
+      <c r="B123" t="s">
+        <v>78</v>
+      </c>
+      <c r="H123" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H124" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H125" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" t="s">
+        <v>64</v>
+      </c>
+      <c r="H127" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" t="s">
+        <v>65</v>
+      </c>
+      <c r="H128" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" t="s">
+        <v>73</v>
+      </c>
+      <c r="H129" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H130" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" t="s">
+        <v>64</v>
+      </c>
+      <c r="H132" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" t="s">
+        <v>65</v>
+      </c>
+      <c r="H133" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" t="s">
+        <v>73</v>
+      </c>
+      <c r="H134" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H135" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H136" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" t="s">
+        <v>64</v>
+      </c>
+      <c r="H138" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" t="s">
+        <v>65</v>
+      </c>
+      <c r="H139" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" t="s">
+        <v>73</v>
+      </c>
+      <c r="H140" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>74</v>
+      </c>
+      <c r="H141" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H142" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" t="s">
+        <v>64</v>
+      </c>
+      <c r="H144" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" t="s">
+        <v>65</v>
+      </c>
+      <c r="H145" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="s">
+        <v>73</v>
+      </c>
+      <c r="H146" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" t="s">
+        <v>74</v>
+      </c>
+      <c r="H147" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H148" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H149" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" t="s">
+        <v>64</v>
+      </c>
+      <c r="H151" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>65</v>
+      </c>
+      <c r="H152" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" t="s">
+        <v>73</v>
+      </c>
+      <c r="H153" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" t="s">
+        <v>74</v>
+      </c>
+      <c r="H154" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H155" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>64</v>
+      </c>
+      <c r="H157" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" t="s">
+        <v>65</v>
+      </c>
+      <c r="H158" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" t="s">
+        <v>73</v>
+      </c>
+      <c r="H159" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" t="s">
+        <v>74</v>
+      </c>
+      <c r="H160" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>88</v>
+      </c>
+      <c r="B161" t="s">
+        <v>88</v>
+      </c>
+      <c r="H161" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H163" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H164" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H167" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H168" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H169" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H170" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H171" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H172" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>68</v>
+      </c>
+      <c r="B190" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>68</v>
+      </c>
+      <c r="B192" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>68</v>
+      </c>
+      <c r="B194" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>68</v>
+      </c>
+      <c r="B211" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>68</v>
+      </c>
+      <c r="B213" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>68</v>
+      </c>
+      <c r="B215" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>10</v>
+      </c>
+      <c r="B253" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>10</v>
+      </c>
+      <c r="B255" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>10</v>
+      </c>
+      <c r="B256" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>10</v>
+      </c>
+      <c r="B271" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>10</v>
+      </c>
+      <c r="B273" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>10</v>
+      </c>
+      <c r="B274" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>10</v>
+      </c>
+      <c r="B287" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>10</v>
+      </c>
+      <c r="B288" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>10</v>
+      </c>
+      <c r="B290" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>10</v>
+      </c>
+      <c r="B291" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H291" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="checklist"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>